--- a/bug_report_did_not_change_status_of_product.xlsx
+++ b/bug_report_did_not_change_status_of_product.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\asferro_aqa\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,9 +24,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Под ролью "Slave" при добавлении отсутсвующих (при первом сохранении) фото, не меняется статус "Новый".</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>Создать новый товар, заполнив все обязательные поля кроме фото и сохранить</t>
   </si>
   <si>
-    <t>Зайти в редоктирование товара, и добавить фото в "Основное изображение" и "Дополнительное изображение" и сохранить</t>
-  </si>
-  <si>
     <t>Result</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
     <t>Expected Result</t>
   </si>
   <si>
-    <t>Статус товара изминился на "На модерации". Отправился запрос на offers/create</t>
-  </si>
-  <si>
     <t>Attachment</t>
   </si>
   <si>
@@ -118,6 +109,15 @@
   </si>
   <si>
     <t>https://www.screencast.com/t/CRmjjNqS8N</t>
+  </si>
+  <si>
+    <t>Под ролью "Slave" при добавлении отсутствующих (при первом сохранении) фото, не меняется статус "Новый".</t>
+  </si>
+  <si>
+    <t>Зайти в редактирование товара, и добавить фото в "Основное изображение" и "Дополнительное изображение" и сохранить</t>
+  </si>
+  <si>
+    <t>Статус товара изменился на "На модерации". Отправился запрос на offers/create</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -307,10 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,6 +321,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -545,7 +548,9 @@
   </sheetPr>
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B12:C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -558,176 +563,181 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="10"/>
+      <c r="B1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="C2" s="10"/>
     </row>
     <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="10"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="12"/>
+      <c r="C4" s="10"/>
     </row>
     <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="C5" s="10"/>
+    </row>
+    <row r="6" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="10"/>
+    </row>
+    <row r="7" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="12"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="10"/>
+    </row>
+    <row r="9" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="12"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="10"/>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="10"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="12"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B11" s="12"/>
+      <c r="C11" s="10"/>
+    </row>
+    <row r="12" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
-        <v>21</v>
       </c>
       <c r="B12" s="5">
         <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
       <c r="B13" s="5">
         <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
       <c r="B14" s="5">
         <v>3</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="C15" s="10"/>
+    </row>
+    <row r="16" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="10"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="12"/>
+      <c r="C17" s="10"/>
+    </row>
+    <row r="18" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="11" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C20" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="A17:C17"/>
@@ -740,11 +750,6 @@
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C18" r:id="rId1"/>
